--- a/Test Cases/US-1_Login and signup page_TCs.xlsx
+++ b/Test Cases/US-1_Login and signup page_TCs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/deepanshu_singla_dxc_com/Documents/Documents/Alchemy/Accounting system/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{5BFEBC02-AF8F-44BD-918C-C7E3F8E53E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8D87027-662E-4094-971F-DC5547E7146D}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="8_{5BFEBC02-AF8F-44BD-918C-C7E3F8E53E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD8D5A01-34DA-4E24-B193-030601522C0D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB555361-C202-42F7-AB72-ABC48CA82E11}"/>
   </bookViews>
@@ -102,186 +102,186 @@
     <t>Validate password field.</t>
   </si>
   <si>
-    <t>US1_TC01_To Validate the sign up page when the user sign up for first time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External user_To Validate the sign up page when the user sign up for first time.
+    <t>Verification mail should be triggered to given mail address and next respective page should be displayed.</t>
+  </si>
+  <si>
+    <t>Validate company name field.</t>
+  </si>
+  <si>
+    <t>Validate address field.</t>
+  </si>
+  <si>
+    <t>Validate country field.</t>
+  </si>
+  <si>
+    <t>Validate state field.</t>
+  </si>
+  <si>
+    <t>Validate pin code field.</t>
+  </si>
+  <si>
+    <t>Step 10</t>
+  </si>
+  <si>
+    <t>Step 11</t>
+  </si>
+  <si>
+    <t>Step 12</t>
+  </si>
+  <si>
+    <t>Confirmation Mail should be triggered successfully.</t>
+  </si>
+  <si>
+    <t>Field should accept character as per defined parameters in US otherwise respective error should be displayed.</t>
+  </si>
+  <si>
+    <t>Sign up page should be as per wireframe.</t>
+  </si>
+  <si>
+    <t>Click on password field and enter the value.</t>
+  </si>
+  <si>
+    <t>Click on login button.</t>
+  </si>
+  <si>
+    <t>US1_TC02_To Validate the sign up page error validation.</t>
+  </si>
+  <si>
+    <t>US1_TC04_To Validate the login  page error validation.</t>
+  </si>
+  <si>
+    <t>US1_TC05_To Validate the forget password functionality.</t>
+  </si>
+  <si>
+    <t>Click on forget password button.</t>
+  </si>
+  <si>
+    <t>Form should be presented to enter email address.</t>
+  </si>
+  <si>
+    <t>Validate forget password form.</t>
+  </si>
+  <si>
+    <t>It should be as per wireframe- ' '</t>
+  </si>
+  <si>
+    <t>Enter email adress and click on submit</t>
+  </si>
+  <si>
+    <t>Form should be sent with reset password link.</t>
+  </si>
+  <si>
+    <t>Login to mail id and check the mail.</t>
+  </si>
+  <si>
+    <t>Mail should be trigerred successfully.</t>
+  </si>
+  <si>
+    <t>Click on forget password link.</t>
+  </si>
+  <si>
+    <t>Validate password reset page.</t>
+  </si>
+  <si>
+    <t>Enter password and click on submit.</t>
+  </si>
+  <si>
+    <t>Password should be reseted successfully.</t>
+  </si>
+  <si>
+    <t>Login page should be as per wireframe ' '</t>
+  </si>
+  <si>
+    <t>Sign up page should be as per wireframe ' '</t>
+  </si>
+  <si>
+    <t>Validate sign up page.</t>
+  </si>
+  <si>
+    <t>Validate login page.</t>
+  </si>
+  <si>
+    <t>Click on 'sign up' button</t>
+  </si>
+  <si>
+    <t>Click on 'sign up'  button</t>
+  </si>
+  <si>
+    <t>Validate confirm password field.</t>
+  </si>
+  <si>
+    <t>Step 13</t>
+  </si>
+  <si>
+    <t>Validate lastname field.</t>
+  </si>
+  <si>
+    <t>Validate email  field.</t>
+  </si>
+  <si>
+    <t>Click on  email field and enter the value.</t>
+  </si>
+  <si>
+    <t>Validate email field.</t>
+  </si>
+  <si>
+    <t>email address should be entered successfully.</t>
+  </si>
+  <si>
+    <t>password should be entered successfully.</t>
+  </si>
+  <si>
+    <t>US1_TC01_To Validate the sign up page when the Accountant sign up for first time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External Accountant_To Validate the sign up page when the Accountant sign up for first time.
 Pre-Conditions:                                                                                                      
 1.Login page URL.
-2.User should sign up as new customer.
+2.Accountant should sign up as new customer.
 </t>
   </si>
   <si>
-    <t>Verification mail should be triggered to given mail address and next respective page should be displayed.</t>
-  </si>
-  <si>
-    <t>Validate company name field.</t>
-  </si>
-  <si>
-    <t>Validate address field.</t>
-  </si>
-  <si>
-    <t>Validate country field.</t>
-  </si>
-  <si>
-    <t>Validate state field.</t>
-  </si>
-  <si>
-    <t>Validate pin code field.</t>
-  </si>
-  <si>
-    <t>Step 10</t>
-  </si>
-  <si>
-    <t>Step 11</t>
-  </si>
-  <si>
-    <t>Step 12</t>
-  </si>
-  <si>
-    <t>User should login to mail id and check the mail.</t>
-  </si>
-  <si>
-    <t>Confirmation Mail should be triggered successfully.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External user_To Validate the sign up page error validation.
+    <t>Accountant should enter all field and click on submit</t>
+  </si>
+  <si>
+    <t>Accountant should login to mail id and check the mail.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External Accountant_To Validate the sign up page error validation.
 Pre-Conditions:                                                                                                      
 1.Login page URL.
 .
 </t>
   </si>
   <si>
-    <t>Field should accept character as per defined parameters in US otherwise respective error should be displayed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External user_To Validate the login page when the user login.
+    <t>US1_TC03_To Validate the login page when the Accountant login.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External Accountant_To Validate the login page when the Accountant login.
 Pre-Conditions:                                                                                                      
 1.Login page URL.
 .
 </t>
   </si>
   <si>
-    <t>Sign up page should be as per wireframe.</t>
-  </si>
-  <si>
-    <t>Click on password field and enter the value.</t>
-  </si>
-  <si>
-    <t>Click on login button.</t>
-  </si>
-  <si>
-    <t>User should be resirected to dashboard.</t>
-  </si>
-  <si>
-    <t>US1_TC03_To Validate the login page when the user login.</t>
-  </si>
-  <si>
-    <t>US1_TC02_To Validate the sign up page error validation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External user_To Validate the login up page error validation.
+    <t>Accountant should be resirected to dashboard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External Accountant_To Validate the login up page error validation.
 Pre-Conditions:                                                                                                      
 1.Login page URL.
 .
 </t>
   </si>
   <si>
-    <t>US1_TC04_To Validate the login  page error validation.</t>
-  </si>
-  <si>
-    <t>US1_TC05_To Validate the forget password functionality.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External user_To Validate the forget password functionality.
+    <t xml:space="preserve">External Accountant_To Validate the forget password functionality.
 Pre-Conditions:                                                                                                      
 1.Login page URL.
 .
 </t>
   </si>
   <si>
-    <t>Click on forget password button.</t>
-  </si>
-  <si>
-    <t>Form should be presented to enter email address.</t>
-  </si>
-  <si>
-    <t>Validate forget password form.</t>
-  </si>
-  <si>
-    <t>It should be as per wireframe- ' '</t>
-  </si>
-  <si>
-    <t>Enter email adress and click on submit</t>
-  </si>
-  <si>
-    <t>Form should be sent with reset password link.</t>
-  </si>
-  <si>
-    <t>Login to mail id and check the mail.</t>
-  </si>
-  <si>
-    <t>Mail should be trigerred successfully.</t>
-  </si>
-  <si>
-    <t>Click on forget password link.</t>
-  </si>
-  <si>
-    <t>User should be redirected to password reset page,</t>
-  </si>
-  <si>
-    <t>Validate password reset page.</t>
-  </si>
-  <si>
-    <t>Enter password and click on submit.</t>
-  </si>
-  <si>
-    <t>Password should be reseted successfully.</t>
-  </si>
-  <si>
-    <t>Login page should be as per wireframe ' '</t>
-  </si>
-  <si>
-    <t>Sign up page should be as per wireframe ' '</t>
-  </si>
-  <si>
-    <t>Validate sign up page.</t>
-  </si>
-  <si>
-    <t>Validate login page.</t>
-  </si>
-  <si>
-    <t>Click on 'sign up' button</t>
-  </si>
-  <si>
-    <t>Click on 'sign up'  button</t>
-  </si>
-  <si>
-    <t>Validate confirm password field.</t>
-  </si>
-  <si>
-    <t>Step 13</t>
-  </si>
-  <si>
-    <t>User should enter all field and click on submit</t>
-  </si>
-  <si>
-    <t>Validate lastname field.</t>
-  </si>
-  <si>
-    <t>Validate email  field.</t>
-  </si>
-  <si>
-    <t>Click on  email field and enter the value.</t>
-  </si>
-  <si>
-    <t>Validate email field.</t>
-  </si>
-  <si>
-    <t>email address should be entered successfully.</t>
-  </si>
-  <si>
-    <t>password should be entered successfully.</t>
+    <t>Accountant should be redirected to password reset page,</t>
   </si>
 </sst>
 </file>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8D137F-15F3-4AF5-93A6-EE3F3F6817CE}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="92" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="73" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -718,10 +718,10 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -741,10 +741,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -755,7 +755,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
@@ -769,10 +769,10 @@
         <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -783,10 +783,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="90.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -794,10 +794,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
@@ -817,7 +817,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>18</v>
@@ -831,10 +831,10 @@
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -848,7 +848,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -859,10 +859,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
@@ -873,10 +873,10 @@
         <v>11</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -890,7 +890,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -901,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -915,10 +915,10 @@
         <v>14</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -926,13 +926,13 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -940,13 +940,13 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -954,13 +954,13 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
@@ -968,13 +968,13 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>6</v>
@@ -1005,10 +1005,10 @@
         <v>7</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1019,10 +1019,10 @@
         <v>8</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1033,10 +1033,10 @@
         <v>9</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1047,10 +1047,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
@@ -1058,10 +1058,10 @@
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>6</v>
@@ -1081,10 +1081,10 @@
         <v>7</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1095,10 +1095,10 @@
         <v>8</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1112,7 +1112,7 @@
         <v>21</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
@@ -1120,10 +1120,10 @@
         <v>15</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
@@ -1143,10 +1143,10 @@
         <v>7</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1157,10 +1157,10 @@
         <v>8</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1171,10 +1171,10 @@
         <v>9</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1185,10 +1185,10 @@
         <v>10</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1199,10 +1199,10 @@
         <v>11</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1213,10 +1213,10 @@
         <v>12</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1227,10 +1227,10 @@
         <v>13</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
